--- a/PSU/DesignFiles/LLC-RESONANT-HALF-BRIDGE-CONVERTER-DESIGN-TOOL-FOR-FAN7688 - 760895751.xlsx
+++ b/PSU/DesignFiles/LLC-RESONANT-HALF-BRIDGE-CONVERTER-DESIGN-TOOL-FOR-FAN7688 - 760895751.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Projects\Altium-Projects\trunk\PSU\DesignFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A06DAA-E211-4EA0-AB8C-9881A724BFD4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD1A5C-34BB-4F4A-A774-D63D69F30346}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14724,8 +14724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="G8" s="86">
         <f>SQRT(Vin_max^2-2*Pin*Thu*0.001/Cdl/0.000001)</f>
-        <v>334.42623864001621</v>
+        <v>327.14675605911179</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>11</v>
@@ -14923,7 +14923,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="16">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -18701,7 +18701,7 @@
     <col min="16" max="16" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="17">
       <c r="A1" s="77" t="s">
         <v>153</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="17">
       <c r="A2" s="77" t="s">
         <v>154</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="17">
       <c r="A3" s="77" t="s">
         <v>166</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0.42623312586212603</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="17">
       <c r="A4" s="77" t="s">
         <v>172</v>
       </c>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="H13" s="75"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="17">
       <c r="A14" s="74">
         <f t="shared" si="6"/>
         <v>64.210506066508856</v>
@@ -19021,7 +19021,7 @@
       </c>
       <c r="P14" s="98"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="17">
       <c r="A15" s="74">
         <f t="shared" si="6"/>
         <v>65.404268501942553</v>
@@ -19059,7 +19059,7 @@
         <v>366.06010435446251</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="17">
       <c r="A16" s="74">
         <f t="shared" si="6"/>
         <v>66.62022463805782</v>
@@ -19097,7 +19097,7 @@
         <v>33.93989564553749</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="17">
       <c r="A17" s="74">
         <f t="shared" si="6"/>
         <v>67.85878708655639</v>
@@ -19135,7 +19135,7 @@
         <v>4.4989775051124754</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="17">
       <c r="A18" s="74">
         <f t="shared" si="6"/>
         <v>69.12037613016426</v>
@@ -19173,7 +19173,7 @@
         <v>2.9839835685699106E-13</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="17">
       <c r="A19" s="74">
         <f t="shared" si="6"/>
         <v>70.405419865246657</v>
@@ -19206,7 +19206,7 @@
       <c r="O19" s="82"/>
       <c r="P19" s="83"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="17">
       <c r="A20" s="74">
         <f t="shared" si="6"/>
         <v>71.71435434707449</v>
@@ -19244,7 +19244,7 @@
         <v>3.2025630761017429E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="17">
       <c r="A21" s="74">
         <f t="shared" si="6"/>
         <v>73.047623737791398</v>
@@ -19282,7 +19282,7 @@
         <v>1.2909944487358056E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="17">
       <c r="A22" s="74">
         <f t="shared" si="6"/>
         <v>74.405680457131794</v>
@@ -19320,7 +19320,7 @@
         <v>161264.23042733545</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="17">
       <c r="A23" s="74">
         <f t="shared" si="6"/>
         <v>75.78898533594095</v>
@@ -19358,7 +19358,7 @@
         <v>0.17823737940491804</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="17">
       <c r="A24" s="74">
         <f t="shared" si="6"/>
         <v>77.198007772549204</v>
@@ -19391,7 +19391,7 @@
       <c r="O24" s="82"/>
       <c r="P24" s="83"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="17">
       <c r="A25" s="74">
         <f t="shared" si="6"/>
         <v>78.633225892053389</v>
@@ -19429,7 +19429,7 @@
         <v>1.3478674919375381E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="17">
       <c r="A26" s="74">
         <f t="shared" si="6"/>
         <v>80.09512670855959</v>
@@ -19467,7 +19467,7 @@
         <v>3.3436477324778925E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="17">
       <c r="A27" s="74">
         <f t="shared" si="6"/>
         <v>81.584206290442083</v>
